--- a/NewFramework/TestData.xlsx
+++ b/NewFramework/TestData.xlsx
@@ -11,19 +11,79 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+  <si>
+    <t>TestCaseName</t>
+  </si>
+  <si>
+    <t>Field1</t>
+  </si>
+  <si>
+    <t>Field2</t>
+  </si>
+  <si>
+    <t>user1</t>
+  </si>
+  <si>
+    <t>user2</t>
+  </si>
+  <si>
+    <t>Test_Check_Login_To_Flipkart</t>
+  </si>
+  <si>
+    <t>Success@1816</t>
+  </si>
+  <si>
+    <t>jkhkjfhasjkf</t>
+  </si>
+  <si>
+    <t>hggh</t>
+  </si>
+  <si>
+    <t>jhfjhf</t>
+  </si>
+  <si>
+    <t>jbj</t>
+  </si>
+  <si>
+    <t>Test_Login_To_Flipkart</t>
+  </si>
+  <si>
+    <t>user3</t>
+  </si>
+  <si>
+    <t>vsdf</t>
+  </si>
+  <si>
+    <t>usr4</t>
+  </si>
+  <si>
+    <t>fdgssss</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -43,13 +103,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -342,12 +408,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
